--- a/Basededados/ENGLAND_S1.xlsx
+++ b/Basededados/ENGLAND_S1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC177"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>FT_Goals_H</t>
+          <t>FT_Goals_A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -19058,6 +19058,1371 @@
       </c>
       <c r="AC177" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>12/01/2023</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>2</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>D Coote</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>8</v>
+      </c>
+      <c r="N178" t="n">
+        <v>20</v>
+      </c>
+      <c r="O178" t="n">
+        <v>3</v>
+      </c>
+      <c r="P178" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>12</v>
+      </c>
+      <c r="R178" t="n">
+        <v>16</v>
+      </c>
+      <c r="S178" t="n">
+        <v>5</v>
+      </c>
+      <c r="T178" t="n">
+        <v>7</v>
+      </c>
+      <c r="U178" t="n">
+        <v>4</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0</v>
+      </c>
+      <c r="X178" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>13/01/2023</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>2</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>M Oliver</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>11</v>
+      </c>
+      <c r="N179" t="n">
+        <v>16</v>
+      </c>
+      <c r="O179" t="n">
+        <v>5</v>
+      </c>
+      <c r="P179" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>12</v>
+      </c>
+      <c r="R179" t="n">
+        <v>8</v>
+      </c>
+      <c r="S179" t="n">
+        <v>0</v>
+      </c>
+      <c r="T179" t="n">
+        <v>11</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Man United</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>2</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>S Attwell</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>8</v>
+      </c>
+      <c r="N180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O180" t="n">
+        <v>4</v>
+      </c>
+      <c r="P180" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>15</v>
+      </c>
+      <c r="R180" t="n">
+        <v>5</v>
+      </c>
+      <c r="S180" t="n">
+        <v>1</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2</v>
+      </c>
+      <c r="U180" t="n">
+        <v>3</v>
+      </c>
+      <c r="V180" t="n">
+        <v>0</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>3</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>D England</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>16</v>
+      </c>
+      <c r="N181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O181" t="n">
+        <v>9</v>
+      </c>
+      <c r="P181" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>8</v>
+      </c>
+      <c r="R181" t="n">
+        <v>15</v>
+      </c>
+      <c r="S181" t="n">
+        <v>7</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1</v>
+      </c>
+      <c r="U181" t="n">
+        <v>1</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>J Brooks</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>12</v>
+      </c>
+      <c r="N182" t="n">
+        <v>13</v>
+      </c>
+      <c r="O182" t="n">
+        <v>4</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>7</v>
+      </c>
+      <c r="R182" t="n">
+        <v>19</v>
+      </c>
+      <c r="S182" t="n">
+        <v>6</v>
+      </c>
+      <c r="T182" t="n">
+        <v>4</v>
+      </c>
+      <c r="U182" t="n">
+        <v>0</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3</v>
+      </c>
+      <c r="W182" t="n">
+        <v>0</v>
+      </c>
+      <c r="X182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>2</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>P Tierney</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>15</v>
+      </c>
+      <c r="N183" t="n">
+        <v>6</v>
+      </c>
+      <c r="O183" t="n">
+        <v>5</v>
+      </c>
+      <c r="P183" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>11</v>
+      </c>
+      <c r="R183" t="n">
+        <v>12</v>
+      </c>
+      <c r="S183" t="n">
+        <v>3</v>
+      </c>
+      <c r="T183" t="n">
+        <v>5</v>
+      </c>
+      <c r="U183" t="n">
+        <v>1</v>
+      </c>
+      <c r="V183" t="n">
+        <v>2</v>
+      </c>
+      <c r="W183" t="n">
+        <v>0</v>
+      </c>
+      <c r="X183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>S Hooper</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>17</v>
+      </c>
+      <c r="N184" t="n">
+        <v>16</v>
+      </c>
+      <c r="O184" t="n">
+        <v>4</v>
+      </c>
+      <c r="P184" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>10</v>
+      </c>
+      <c r="R184" t="n">
+        <v>7</v>
+      </c>
+      <c r="S184" t="n">
+        <v>4</v>
+      </c>
+      <c r="T184" t="n">
+        <v>3</v>
+      </c>
+      <c r="U184" t="n">
+        <v>0</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0</v>
+      </c>
+      <c r="X184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>2</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>J Gillett</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>12</v>
+      </c>
+      <c r="N185" t="n">
+        <v>7</v>
+      </c>
+      <c r="O185" t="n">
+        <v>4</v>
+      </c>
+      <c r="P185" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>5</v>
+      </c>
+      <c r="R185" t="n">
+        <v>9</v>
+      </c>
+      <c r="S185" t="n">
+        <v>5</v>
+      </c>
+      <c r="T185" t="n">
+        <v>3</v>
+      </c>
+      <c r="U185" t="n">
+        <v>1</v>
+      </c>
+      <c r="V185" t="n">
+        <v>1</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0</v>
+      </c>
+      <c r="X185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>15/01/2023</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>P Bankes</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>15</v>
+      </c>
+      <c r="N186" t="n">
+        <v>10</v>
+      </c>
+      <c r="O186" t="n">
+        <v>5</v>
+      </c>
+      <c r="P186" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>10</v>
+      </c>
+      <c r="R186" t="n">
+        <v>17</v>
+      </c>
+      <c r="S186" t="n">
+        <v>11</v>
+      </c>
+      <c r="T186" t="n">
+        <v>7</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2</v>
+      </c>
+      <c r="V186" t="n">
+        <v>5</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0</v>
+      </c>
+      <c r="X186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>15/01/2023</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>R Jones</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>20</v>
+      </c>
+      <c r="N187" t="n">
+        <v>5</v>
+      </c>
+      <c r="O187" t="n">
+        <v>5</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>6</v>
+      </c>
+      <c r="R187" t="n">
+        <v>14</v>
+      </c>
+      <c r="S187" t="n">
+        <v>10</v>
+      </c>
+      <c r="T187" t="n">
+        <v>5</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0</v>
+      </c>
+      <c r="X187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>15/01/2023</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>C Pawson</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>17</v>
+      </c>
+      <c r="N188" t="n">
+        <v>14</v>
+      </c>
+      <c r="O188" t="n">
+        <v>7</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>16</v>
+      </c>
+      <c r="R188" t="n">
+        <v>15</v>
+      </c>
+      <c r="S188" t="n">
+        <v>4</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3</v>
+      </c>
+      <c r="U188" t="n">
+        <v>4</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0</v>
+      </c>
+      <c r="X188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>18/01/2023</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Man United</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>R Jones</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>10</v>
+      </c>
+      <c r="N189" t="n">
+        <v>15</v>
+      </c>
+      <c r="O189" t="n">
+        <v>5</v>
+      </c>
+      <c r="P189" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>9</v>
+      </c>
+      <c r="R189" t="n">
+        <v>10</v>
+      </c>
+      <c r="S189" t="n">
+        <v>3</v>
+      </c>
+      <c r="T189" t="n">
+        <v>3</v>
+      </c>
+      <c r="U189" t="n">
+        <v>1</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2</v>
+      </c>
+      <c r="W189" t="n">
+        <v>0</v>
+      </c>
+      <c r="X189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>19/01/2023</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>4</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>S Hooper</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>16</v>
+      </c>
+      <c r="N190" t="n">
+        <v>9</v>
+      </c>
+      <c r="O190" t="n">
+        <v>6</v>
+      </c>
+      <c r="P190" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>10</v>
+      </c>
+      <c r="R190" t="n">
+        <v>14</v>
+      </c>
+      <c r="S190" t="n">
+        <v>8</v>
+      </c>
+      <c r="T190" t="n">
+        <v>3</v>
+      </c>
+      <c r="U190" t="n">
+        <v>1</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2</v>
+      </c>
+      <c r="W190" t="n">
+        <v>0</v>
+      </c>
+      <c r="X190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
